--- a/medicine/Enfance/Édouard_de_Keyser/Édouard_de_Keyser.xlsx
+++ b/medicine/Enfance/Édouard_de_Keyser/Édouard_de_Keyser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89douard_de_Keyser</t>
+          <t>Édouard_de_Keyser</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard de Keyser, né le 1er juillet 1883 à Ypres (province de Flandre-Occidentale) et mort le 11 mai 1974 à Nice (Alpes-Maritimes), est un écrivain voyageur belge. Il a écrit sous son patronyme et sous les pseudonymes Edmond Ro Mazières, Alain Duval, Edmond Romazières et Alba d'Oro. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89douard_de_Keyser</t>
+          <t>Édouard_de_Keyser</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Édouard Gustave Isidore Aimé Dekeyser naît le 1er juillet 1883 à Ypres[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Édouard Gustave Isidore Aimé Dekeyser naît le 1er juillet 1883 à Ypres.
 Édouard de Keyser est un l'auteur de nombreux romans sentimentaux, de romans policiers (notamment avec le personnage de Vincent Crapotte), d'aventures et de romans pour la jeunesse.
 De 1961 à 1974, il est un membre assidu de la société Le Vieux Papier, à laquelle il a fourni plusieurs articles remarquables[non neutre], notamment sur les vues d’optique, qu'il collectionnait. Il est aussi l’auteur de la première « table » (index) des articles parus dans la revue Le Vieux Papier de 1900 à 1969.
 Il a été officier dans l'armée belge.
-Il meurt le 11 mai 1974 à Nice à l'âge de 90 ans[1].
+Il meurt le 11 mai 1974 à Nice à l'âge de 90 ans.
 </t>
         </is>
       </c>
